--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_16-12.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_16-12.xlsx
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>0:0</t>
+  </si>
+  <si>
+    <t>APEXIDONE 3MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
@@ -824,17 +827,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -850,13 +853,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -868,7 +871,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -876,17 +879,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>30.5</v>
+        <v>27</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -902,17 +905,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>19.899999999999999</v>
+        <v>30.5</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -920,7 +923,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -928,17 +931,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>43</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -946,7 +949,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -954,13 +957,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -972,7 +975,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -980,17 +983,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -998,7 +1001,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1006,17 +1009,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1024,7 +1027,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1032,17 +1035,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1058,17 +1061,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1076,7 +1079,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1084,17 +1087,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>-96</v>
+        <v>17</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1110,17 +1113,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>-15</v>
+        <v>-96</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1128,7 +1131,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1136,17 +1139,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>65</v>
+        <v>-15</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1154,7 +1157,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1162,17 +1165,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>86.5</v>
+        <v>65</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1180,7 +1183,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1188,17 +1191,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>19</v>
+        <v>86.5</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1214,17 +1217,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1232,7 +1235,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1240,13 +1243,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1266,13 +1269,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1292,17 +1295,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>56.399999999999999</v>
+        <v>76</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1310,7 +1313,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1318,13 +1321,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>37.600000000000001</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1344,13 +1347,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>42</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
@@ -1376,11 +1379,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1402,7 +1405,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1422,13 +1425,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1440,7 +1443,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1448,13 +1451,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1474,13 +1477,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1500,13 +1503,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1526,13 +1529,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1544,7 +1547,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1552,51 +1555,77 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" ht="26.25" customHeight="1">
-      <c r="K35" s="10">
-        <v>932.89999999999998</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
         <v>57</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c t="s" r="F36" s="12">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
+        <v>9</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>40</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c t="s" r="N35" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="K36" s="10">
+        <v>1058.9000000000001</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="11">
         <v>58</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c t="s" r="I36" s="14">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c t="s" r="F37" s="12">
         <v>59</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c t="s" r="I37" s="14">
+        <v>60</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="107">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1697,10 +1726,13 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:N37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
